--- a/Output/March/productivity_agent/productivity_agent_2022-03-02.xlsx
+++ b/Output/March/productivity_agent/productivity_agent_2022-03-02.xlsx
@@ -16558,7 +16558,7 @@
         <v>1390</v>
       </c>
       <c r="N49">
-        <v>145</v>
+        <v>169</v>
       </c>
       <c r="O49">
         <v>1390</v>
@@ -16672,7 +16672,7 @@
         <v>1463.157894736842</v>
       </c>
       <c r="AZ49">
-        <v>223.0769230769231</v>
+        <v>260</v>
       </c>
       <c r="BA49">
         <v>758.1818181818181</v>
@@ -16786,7 +16786,7 @@
         <v>0.315471732371031</v>
       </c>
       <c r="CL49">
-        <v>0.2624434389140272</v>
+        <v>0.3058823529411765</v>
       </c>
       <c r="CM49">
         <v>0.9477272727272726</v>
@@ -16831,7 +16831,7 @@
         <v>0</v>
       </c>
       <c r="DA49">
-        <v>0.6009397198980317</v>
+        <v>0.6039595374507214</v>
       </c>
     </row>
     <row r="50" spans="1:105">
@@ -19094,7 +19094,7 @@
         <v>0</v>
       </c>
       <c r="N57">
-        <v>3845</v>
+        <v>3941</v>
       </c>
       <c r="O57">
         <v>0</v>
@@ -19208,7 +19208,7 @@
         <v>0</v>
       </c>
       <c r="AZ57">
-        <v>475.6701030927834</v>
+        <v>487.5463917525773</v>
       </c>
       <c r="BA57">
         <v>0</v>
@@ -19322,7 +19322,7 @@
         <v>0</v>
       </c>
       <c r="CL57">
-        <v>0.5596118859915099</v>
+        <v>0.5735839902971498</v>
       </c>
       <c r="CM57">
         <v>0</v>
@@ -19367,7 +19367,7 @@
         <v>0</v>
       </c>
       <c r="DA57">
-        <v>0.5532131305756421</v>
+        <v>0.5657158438380691</v>
       </c>
     </row>
     <row r="58" spans="1:105">
@@ -21947,7 +21947,7 @@
         <v>1184</v>
       </c>
       <c r="N66">
-        <v>741</v>
+        <v>759</v>
       </c>
       <c r="O66">
         <v>1624</v>
@@ -22061,7 +22061,7 @@
         <v>0</v>
       </c>
       <c r="AZ66">
-        <v>411.6666666666666</v>
+        <v>421.6666666666666</v>
       </c>
       <c r="BA66">
         <v>563.2369942196532</v>
@@ -22175,7 +22175,7 @@
         <v>0</v>
       </c>
       <c r="CL66">
-        <v>0.484313725490196</v>
+        <v>0.496078431372549</v>
       </c>
       <c r="CM66">
         <v>0.7040462427745665</v>
@@ -22220,7 +22220,7 @@
         <v>0</v>
       </c>
       <c r="DA66">
-        <v>0.6427113351943828</v>
+        <v>0.6459860471410172</v>
       </c>
     </row>
     <row r="67" spans="1:105">
@@ -22264,7 +22264,7 @@
         <v>0</v>
       </c>
       <c r="N67">
-        <v>3391</v>
+        <v>3511</v>
       </c>
       <c r="O67">
         <v>0</v>
@@ -22378,7 +22378,7 @@
         <v>0</v>
       </c>
       <c r="AZ67">
-        <v>708.9198606271777</v>
+        <v>734.006968641115</v>
       </c>
       <c r="BA67">
         <v>0</v>
@@ -22492,7 +22492,7 @@
         <v>0</v>
       </c>
       <c r="CL67">
-        <v>0.8340233654437386</v>
+        <v>0.8635376101660177</v>
       </c>
       <c r="CM67">
         <v>0</v>
@@ -22537,7 +22537,7 @@
         <v>0</v>
       </c>
       <c r="DA67">
-        <v>0.633294940353764</v>
+        <v>0.6481036610448376</v>
       </c>
     </row>
     <row r="68" spans="1:105">
